--- a/Material + Ano/ResNet/Tentativa 1/Com Tentativa 1 - Material/Ao longo das Épocas.xlsx
+++ b/Material + Ano/ResNet/Tentativa 1/Com Tentativa 1 - Material/Ao longo das Épocas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material + Ano\ResNet\Tentativa 1\Com Tentativa 1 - Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8160FB-AEDE-47AA-B9A6-A4A415FBFD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B324688-DEF3-47E2-9884-91F8432BFE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,6 +66,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -419,7 +420,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,16 +446,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>18.103298187255859</v>
+        <v>18.380142211914059</v>
       </c>
       <c r="C2" s="2">
-        <v>0.78614282608032227</v>
+        <v>0.78652989864349365</v>
       </c>
       <c r="D2" s="2">
-        <v>10.918642044067379</v>
+        <v>13.64456272125244</v>
       </c>
       <c r="E2" s="2">
-        <v>0.81550389528274536</v>
+        <v>0.78914725780487061</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -462,16 +463,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>11.95698356628418</v>
+        <v>14.667179107666019</v>
       </c>
       <c r="C3" s="2">
-        <v>0.83859103918075562</v>
+        <v>0.82310819625854492</v>
       </c>
       <c r="D3" s="2">
-        <v>13.050765037536619</v>
+        <v>18.815374374389648</v>
       </c>
       <c r="E3" s="2">
-        <v>0.85271316766738892</v>
+        <v>0.84961241483688354</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -479,16 +480,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>16.075151443481449</v>
+        <v>12.65136051177979</v>
       </c>
       <c r="C4" s="2">
-        <v>0.83201086521148682</v>
+        <v>0.84594541788101196</v>
       </c>
       <c r="D4" s="2">
-        <v>27.576784133911129</v>
+        <v>23.831722259521481</v>
       </c>
       <c r="E4" s="2">
-        <v>0.85891473293304443</v>
+        <v>0.86046510934829712</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -496,16 +497,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>7.9112949371337891</v>
+        <v>6.581812858581543</v>
       </c>
       <c r="C5" s="2">
-        <v>0.89045870304107666</v>
+        <v>0.89916777610778809</v>
       </c>
       <c r="D5" s="2">
-        <v>21.313421249389648</v>
+        <v>21.253793716430661</v>
       </c>
       <c r="E5" s="2">
-        <v>0.86821705102920532</v>
+        <v>0.8620154857635498</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -513,16 +514,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2.2892951965332031</v>
+        <v>2.2832961082458501</v>
       </c>
       <c r="C6" s="2">
-        <v>0.93497192859649658</v>
+        <v>0.93942326307296753</v>
       </c>
       <c r="D6" s="2">
-        <v>22.55461502075195</v>
+        <v>21.649833679199219</v>
       </c>
       <c r="E6" s="2">
-        <v>0.87441861629486084</v>
+        <v>0.87286823987960815</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -530,16 +531,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1.056615352630615</v>
+        <v>1.7801059484481809</v>
       </c>
       <c r="C7" s="2">
-        <v>0.95800268650054932</v>
+        <v>0.9431004524230957</v>
       </c>
       <c r="D7" s="2">
-        <v>28.505952835083011</v>
+        <v>22.903043746948239</v>
       </c>
       <c r="E7" s="2">
-        <v>0.86976742744445801</v>
+        <v>0.87131780385971069</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -547,16 +548,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1.4434182643890381</v>
+        <v>1.6862820386886599</v>
       </c>
       <c r="C8" s="2">
-        <v>0.96226048469543457</v>
+        <v>0.9520031213760376</v>
       </c>
       <c r="D8" s="2">
-        <v>20.064155578613281</v>
+        <v>18.498165130615231</v>
       </c>
       <c r="E8" s="2">
-        <v>0.86976742744445801</v>
+        <v>0.87286823987960815</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -564,16 +565,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2.2330248355865479</v>
+        <v>2.0954782962799068</v>
       </c>
       <c r="C9" s="2">
-        <v>0.94522935152053833</v>
+        <v>0.94155216217041016</v>
       </c>
       <c r="D9" s="2">
-        <v>12.99958324432373</v>
+        <v>17.479547500610352</v>
       </c>
       <c r="E9" s="2">
-        <v>0.86821705102920532</v>
+        <v>0.87131780385971069</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -581,16 +582,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>1.6425919532775879</v>
+        <v>2.2044367790222168</v>
       </c>
       <c r="C10" s="2">
-        <v>0.95219665765762329</v>
+        <v>0.93768143653869629</v>
       </c>
       <c r="D10" s="2">
-        <v>15.149733543396</v>
+        <v>19.082828521728519</v>
       </c>
       <c r="E10" s="2">
-        <v>0.75038760900497437</v>
+        <v>0.87751936912536621</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -598,16 +599,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>1.526310920715332</v>
+        <v>1.996468782424927</v>
       </c>
       <c r="C11" s="2">
-        <v>0.96361523866653442</v>
+        <v>0.95297080278396606</v>
       </c>
       <c r="D11" s="2">
-        <v>12.58585739135742</v>
+        <v>13.38776683807373</v>
       </c>
       <c r="E11" s="2">
-        <v>0.85271316766738892</v>
+        <v>0.85581398010253906</v>
       </c>
     </row>
   </sheetData>
